--- a/training/output/Resnet34_ViT/W/W0_W1.xlsx
+++ b/training/output/Resnet34_ViT/W/W0_W1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:B201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,802 +447,1602 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.4766171328671329</v>
+        <v>0.4358333333333334</v>
       </c>
       <c r="B2" t="n">
-        <v>3.238967407833446</v>
+        <v>2.657855629920959</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.791958041958042</v>
+        <v>0.7652083333333334</v>
       </c>
       <c r="B3" t="n">
-        <v>2.525113224983215</v>
+        <v>2.034238576889038</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.8352272727272727</v>
+        <v>0.8310416666666667</v>
       </c>
       <c r="B4" t="n">
-        <v>2.226613499901511</v>
+        <v>1.801410108804703</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.8800262237762237</v>
+        <v>0.8814583333333333</v>
       </c>
       <c r="B5" t="n">
-        <v>1.992065500129353</v>
+        <v>1.653379261493683</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.8806818181818182</v>
+        <v>0.8689583333333334</v>
       </c>
       <c r="B6" t="n">
-        <v>1.855161081660878</v>
+        <v>1.500757724046707</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.8863636363636364</v>
+        <v>0.876875</v>
       </c>
       <c r="B7" t="n">
-        <v>1.796961329200051</v>
+        <v>1.426537096500397</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.8793706293706294</v>
+        <v>0.9120833333333334</v>
       </c>
       <c r="B8" t="n">
-        <v>1.729021337899295</v>
+        <v>1.328645676374435</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.8863636363636364</v>
+        <v>0.93</v>
       </c>
       <c r="B9" t="n">
-        <v>1.682324577461589</v>
+        <v>1.261877954006195</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.8892045454545454</v>
+        <v>0.914375</v>
       </c>
       <c r="B10" t="n">
-        <v>1.638025538487868</v>
+        <v>1.236972510814667</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.8920454545454546</v>
+        <v>0.9091666666666667</v>
       </c>
       <c r="B11" t="n">
-        <v>1.572916594418612</v>
+        <v>1.146328240633011</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.8835227272727273</v>
+        <v>0.9441666666666666</v>
       </c>
       <c r="B12" t="n">
-        <v>1.585483041676608</v>
+        <v>1.100590646266937</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.8835227272727273</v>
+        <v>0.9420833333333333</v>
       </c>
       <c r="B13" t="n">
-        <v>1.582271857695146</v>
+        <v>1.113897681236267</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.8942307692307693</v>
+        <v>0.9320833333333334</v>
       </c>
       <c r="B14" t="n">
-        <v>1.556722651828419</v>
+        <v>1.086296260356903</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.888548951048951</v>
+        <v>0.9470833333333334</v>
       </c>
       <c r="B15" t="n">
-        <v>1.526247777722099</v>
+        <v>1.037843585014343</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.8948863636363636</v>
+        <v>0.9164583333333333</v>
       </c>
       <c r="B16" t="n">
-        <v>1.542502522468567</v>
+        <v>1.016949161887169</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.8892045454545454</v>
+        <v>0.9441666666666666</v>
       </c>
       <c r="B17" t="n">
-        <v>1.520348592237993</v>
+        <v>0.9686267226934433</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.8892045454545454</v>
+        <v>0.9541666666666666</v>
       </c>
       <c r="B18" t="n">
-        <v>1.52343767339533</v>
+        <v>0.9452424794435501</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.8892045454545454</v>
+        <v>0.939375</v>
       </c>
       <c r="B19" t="n">
-        <v>1.481613256714561</v>
+        <v>0.9480051398277283</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.9034090909090909</v>
+        <v>0.9468749999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>1.484177199277011</v>
+        <v>0.9374852925539017</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.9147727272727273</v>
+        <v>0.946875</v>
       </c>
       <c r="B21" t="n">
-        <v>1.461239094083959</v>
+        <v>0.9406558871269226</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.8948863636363636</v>
+        <v>0.941875</v>
       </c>
       <c r="B22" t="n">
-        <v>1.452669105746529</v>
+        <v>0.917166069149971</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.8977272727272727</v>
+        <v>0.9545833333333333</v>
       </c>
       <c r="B23" t="n">
-        <v>1.467621743679047</v>
+        <v>0.9237842112779617</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.8999125874125874</v>
+        <v>0.9545833333333333</v>
       </c>
       <c r="B24" t="n">
-        <v>1.466368978673761</v>
+        <v>0.9099860638380051</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.888548951048951</v>
+        <v>0.9395833333333334</v>
       </c>
       <c r="B25" t="n">
-        <v>1.446538963101127</v>
+        <v>0.9036695659160614</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.8942307692307693</v>
+        <v>0.954375</v>
       </c>
       <c r="B26" t="n">
-        <v>1.450953060930426</v>
+        <v>0.9022716730833054</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.9084353146853147</v>
+        <v>0.949375</v>
       </c>
       <c r="B27" t="n">
-        <v>1.449649014256217</v>
+        <v>0.8954530358314514</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.90625</v>
+        <v>0.9191666666666666</v>
       </c>
       <c r="B28" t="n">
-        <v>1.43721513856541</v>
+        <v>0.8645065724849701</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.8942307692307693</v>
+        <v>0.9516666666666665</v>
       </c>
       <c r="B29" t="n">
-        <v>1.452659536491741</v>
+        <v>0.856367364525795</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.9034090909090909</v>
+        <v>0.951875</v>
       </c>
       <c r="B30" t="n">
-        <v>1.4407949664376</v>
+        <v>0.861808642745018</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.9034090909090909</v>
+        <v>0.9545833333333333</v>
       </c>
       <c r="B31" t="n">
-        <v>1.430941359563307</v>
+        <v>0.8696897327899933</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.9005681818181818</v>
+        <v>0.944375</v>
       </c>
       <c r="B32" t="n">
-        <v>1.43185311014002</v>
+        <v>0.8602333813905716</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.8948863636363636</v>
+        <v>0.9568749999999999</v>
       </c>
       <c r="B33" t="n">
-        <v>1.431961818174882</v>
+        <v>0.8432199954986572</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.90625</v>
+        <v>0.9568749999999999</v>
       </c>
       <c r="B34" t="n">
-        <v>1.437914577397433</v>
+        <v>0.8442454040050507</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.8892045454545454</v>
+        <v>0.944375</v>
       </c>
       <c r="B35" t="n">
-        <v>1.438947899775072</v>
+        <v>0.8215072453022003</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.9090909090909091</v>
+        <v>0.9441666666666666</v>
       </c>
       <c r="B36" t="n">
-        <v>1.437565044923262</v>
+        <v>0.8290198445320129</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.8977272727272727</v>
+        <v>0.959375</v>
       </c>
       <c r="B37" t="n">
-        <v>1.4258277091113</v>
+        <v>0.8182839006185532</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.8977272727272727</v>
+        <v>0.9566666666666667</v>
       </c>
       <c r="B38" t="n">
-        <v>1.431665301322937</v>
+        <v>0.8183198720216751</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.9119318181818182</v>
+        <v>0.9341666666666667</v>
       </c>
       <c r="B39" t="n">
-        <v>1.417076360095631</v>
+        <v>0.8349007368087769</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.9119318181818182</v>
+        <v>0.961875</v>
       </c>
       <c r="B40" t="n">
-        <v>1.417148747227409</v>
+        <v>0.8721804767847061</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.9147727272727273</v>
+        <v>0.9191666666666666</v>
       </c>
       <c r="B41" t="n">
-        <v>1.421107774431055</v>
+        <v>0.8334819674491882</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.9204545454545454</v>
+        <v>0.9491666666666666</v>
       </c>
       <c r="B42" t="n">
-        <v>1.424558352340352</v>
+        <v>0.8110935539007187</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.9034090909090909</v>
+        <v>0.9466666666666667</v>
       </c>
       <c r="B43" t="n">
-        <v>1.413105428218842</v>
+        <v>0.8098411411046982</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.90625</v>
+        <v>0.9441666666666666</v>
       </c>
       <c r="B44" t="n">
-        <v>1.423669511621649</v>
+        <v>0.7958625853061676</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.90625</v>
+        <v>0.9416666666666665</v>
       </c>
       <c r="B45" t="n">
-        <v>1.423601811582392</v>
+        <v>0.7903259247541428</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.9090909090909091</v>
+        <v>0.9566666666666667</v>
       </c>
       <c r="B46" t="n">
-        <v>1.411749986085025</v>
+        <v>0.8561135083436966</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.90625</v>
+        <v>0.9441666666666666</v>
       </c>
       <c r="B47" t="n">
-        <v>1.420577959580855</v>
+        <v>0.8191254585981369</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.9090909090909091</v>
+        <v>0.9541666666666666</v>
       </c>
       <c r="B48" t="n">
-        <v>1.411376427520405</v>
+        <v>0.7973927706480026</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.9119318181818182</v>
+        <v>0.9516666666666665</v>
       </c>
       <c r="B49" t="n">
-        <v>1.412092311815782</v>
+        <v>0.7936191558837891</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.9176136363636364</v>
+        <v>0.9466666666666667</v>
       </c>
       <c r="B50" t="n">
-        <v>1.410349677909504</v>
+        <v>0.7947069704532623</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.9147727272727273</v>
+        <v>0.9466666666666667</v>
       </c>
       <c r="B51" t="n">
-        <v>1.413841274651614</v>
+        <v>0.8089746534824371</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.9176136363636364</v>
+        <v>0.9416666666666665</v>
       </c>
       <c r="B52" t="n">
-        <v>1.41169014302167</v>
+        <v>0.8144733756780624</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.9147727272727273</v>
+        <v>0.9366666666666666</v>
       </c>
       <c r="B53" t="n">
-        <v>1.406200815330852</v>
+        <v>0.7776534408330917</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.9147727272727273</v>
+        <v>0.9441666666666666</v>
       </c>
       <c r="B54" t="n">
-        <v>1.412935132330114</v>
+        <v>0.7870968729257584</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.9176136363636364</v>
+        <v>0.9591666666666666</v>
       </c>
       <c r="B55" t="n">
-        <v>1.412911799820987</v>
+        <v>0.7863822877407074</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.9034090909090909</v>
+        <v>0.961875</v>
       </c>
       <c r="B56" t="n">
-        <v>1.412598322738301</v>
+        <v>0.7778153568506241</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.9005681818181818</v>
+        <v>0.9466666666666667</v>
       </c>
       <c r="B57" t="n">
-        <v>1.409657218239524</v>
+        <v>0.7790476083755493</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.9261363636363636</v>
+        <v>0.9541666666666666</v>
       </c>
       <c r="B58" t="n">
-        <v>1.411300680854104</v>
+        <v>0.7724875211715698</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.9204545454545454</v>
+        <v>0.9541666666666666</v>
       </c>
       <c r="B59" t="n">
-        <v>1.409686451608484</v>
+        <v>0.7791426628828049</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.9176136363636364</v>
+        <v>0.9566666666666667</v>
       </c>
       <c r="B60" t="n">
-        <v>1.406215261329304</v>
+        <v>0.7696487754583359</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.9346590909090909</v>
+        <v>0.9541666666666666</v>
       </c>
       <c r="B61" t="n">
-        <v>1.40516430681402</v>
+        <v>0.8119741678237915</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.9261363636363636</v>
+        <v>0.964375</v>
       </c>
       <c r="B62" t="n">
-        <v>1.407680408521132</v>
+        <v>0.77549047768116</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.9261363636363636</v>
+        <v>0.9616666666666666</v>
       </c>
       <c r="B63" t="n">
-        <v>1.404197172685103</v>
+        <v>0.7824237644672394</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.9090909090909091</v>
+        <v>0.9466666666666667</v>
       </c>
       <c r="B64" t="n">
-        <v>1.422556042671204</v>
+        <v>0.7858804017305374</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.9090909090909091</v>
+        <v>0.964375</v>
       </c>
       <c r="B65" t="n">
-        <v>1.414803770455447</v>
+        <v>0.7724347412586212</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.9119318181818182</v>
+        <v>0.954375</v>
       </c>
       <c r="B66" t="n">
-        <v>1.411523390900005</v>
+        <v>0.7739612907171249</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.9176136363636364</v>
+        <v>0.964375</v>
       </c>
       <c r="B67" t="n">
-        <v>1.405065222219987</v>
+        <v>0.7778922021389008</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.9232954545454546</v>
+        <v>0.9491666666666666</v>
       </c>
       <c r="B68" t="n">
-        <v>1.4053786017678</v>
+        <v>0.7721592783927917</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.9090909090909091</v>
+        <v>0.959375</v>
       </c>
       <c r="B69" t="n">
-        <v>1.404433326287703</v>
+        <v>0.7757430523633957</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.9147727272727273</v>
+        <v>0.9616666666666666</v>
       </c>
       <c r="B70" t="n">
-        <v>1.406680069186471</v>
+        <v>0.7720505744218826</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.9005681818181818</v>
+        <v>0.9491666666666666</v>
       </c>
       <c r="B71" t="n">
-        <v>1.422317716208371</v>
+        <v>0.763795331120491</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.90625</v>
+        <v>0.9516666666666665</v>
       </c>
       <c r="B72" t="n">
-        <v>1.406953600319949</v>
+        <v>0.772843673825264</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.9147727272727273</v>
+        <v>0.959375</v>
       </c>
       <c r="B73" t="n">
-        <v>1.408617539839311</v>
+        <v>0.7797688841819763</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.9147727272727273</v>
+        <v>0.9439583333333333</v>
       </c>
       <c r="B74" t="n">
-        <v>1.412735348398035</v>
+        <v>0.7842642664909363</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.90625</v>
+        <v>0.9541666666666666</v>
       </c>
       <c r="B75" t="n">
-        <v>1.406326613642953</v>
+        <v>0.7713373303413391</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.9090909090909091</v>
+        <v>0.959375</v>
       </c>
       <c r="B76" t="n">
-        <v>1.406098354946483</v>
+        <v>0.776220828294754</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.9090909090909091</v>
+        <v>0.959375</v>
       </c>
       <c r="B77" t="n">
-        <v>1.404546786438335</v>
+        <v>0.7582988888025284</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.9090909090909091</v>
+        <v>0.9641666666666666</v>
       </c>
       <c r="B78" t="n">
-        <v>1.410005455667322</v>
+        <v>0.773322269320488</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.9090909090909091</v>
+        <v>0.9466666666666667</v>
       </c>
       <c r="B79" t="n">
-        <v>1.4099130413749</v>
+        <v>0.7535776793956757</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.9034090909090909</v>
+        <v>0.9566666666666667</v>
       </c>
       <c r="B80" t="n">
-        <v>1.40360563993454</v>
+        <v>0.7621905356645584</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.9119318181818182</v>
+        <v>0.9591666666666666</v>
       </c>
       <c r="B81" t="n">
-        <v>1.402765366164121</v>
+        <v>0.7735970169305801</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.9176136363636364</v>
+        <v>0.9541666666666666</v>
       </c>
       <c r="B82" t="n">
-        <v>1.402278130704706</v>
+        <v>0.7516820877790451</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.9147727272727273</v>
+        <v>0.9539583333333334</v>
       </c>
       <c r="B83" t="n">
-        <v>1.404420164498416</v>
+        <v>0.7502633333206177</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.9176136363636364</v>
+        <v>0.9566666666666667</v>
       </c>
       <c r="B84" t="n">
-        <v>1.400878218087283</v>
+        <v>0.7507555484771729</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.9176136363636364</v>
+        <v>0.9541666666666666</v>
       </c>
       <c r="B85" t="n">
-        <v>1.399928764863448</v>
+        <v>0.7584807872772217</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.9119318181818182</v>
+        <v>0.9489583333333333</v>
       </c>
       <c r="B86" t="n">
-        <v>1.400824118744243</v>
+        <v>0.7511255741119385</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.9147727272727273</v>
+        <v>0.9541666666666666</v>
       </c>
       <c r="B87" t="n">
-        <v>1.403397435491735</v>
+        <v>0.7728387415409088</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.9090909090909091</v>
+        <v>0.964375</v>
       </c>
       <c r="B88" t="n">
-        <v>1.406532379713926</v>
+        <v>0.7546235024929047</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.9034090909090909</v>
+        <v>0.9539583333333334</v>
       </c>
       <c r="B89" t="n">
-        <v>1.400642741810192</v>
+        <v>0.765469029545784</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.90625</v>
+        <v>0.9566666666666667</v>
       </c>
       <c r="B90" t="n">
-        <v>1.405865230343559</v>
+        <v>0.7644417732954025</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.9034090909090909</v>
+        <v>0.964375</v>
       </c>
       <c r="B91" t="n">
-        <v>1.401323508132588</v>
+        <v>0.7527905851602554</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0.9119318181818182</v>
+        <v>0.9591666666666666</v>
       </c>
       <c r="B92" t="n">
-        <v>1.402512024749409</v>
+        <v>0.7532675564289093</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.9204545454545454</v>
+        <v>0.9491666666666666</v>
       </c>
       <c r="B93" t="n">
-        <v>1.399155307899822</v>
+        <v>0.7487960904836655</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.9176136363636364</v>
+        <v>0.9541666666666666</v>
       </c>
       <c r="B94" t="n">
-        <v>1.398933486504988</v>
+        <v>0.755442202091217</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.9147727272727273</v>
+        <v>0.9516666666666665</v>
       </c>
       <c r="B95" t="n">
-        <v>1.402659833431244</v>
+        <v>0.742112785577774</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0.9119318181818182</v>
+        <v>0.9491666666666666</v>
       </c>
       <c r="B96" t="n">
-        <v>1.402934128587896</v>
+        <v>0.7448866069316864</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0.9147727272727273</v>
+        <v>0.9541666666666666</v>
       </c>
       <c r="B97" t="n">
-        <v>1.40318469025872</v>
+        <v>0.7472287714481354</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0.90625</v>
+        <v>0.9566666666666667</v>
       </c>
       <c r="B98" t="n">
-        <v>1.396820409731431</v>
+        <v>0.7532023042440414</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0.9119318181818182</v>
+        <v>0.9591666666666666</v>
       </c>
       <c r="B99" t="n">
-        <v>1.40420849756761</v>
+        <v>0.7475405931472778</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0.9090909090909091</v>
+        <v>0.9591666666666666</v>
       </c>
       <c r="B100" t="n">
-        <v>1.399239621379159</v>
+        <v>0.7600979059934616</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0.9034090909090909</v>
+        <v>0.9566666666666667</v>
       </c>
       <c r="B101" t="n">
-        <v>1.399543989788402</v>
+        <v>0.7421263009309769</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>0.9616666666666666</v>
+      </c>
+      <c r="B102" t="n">
+        <v>0.7418971955776215</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>0.9591666666666666</v>
+      </c>
+      <c r="B103" t="n">
+        <v>0.7450331896543503</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>0.9591666666666666</v>
+      </c>
+      <c r="B104" t="n">
+        <v>0.7492330968379974</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>0.9516666666666665</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0.7584146410226822</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>0.9541666666666666</v>
+      </c>
+      <c r="B106" t="n">
+        <v>0.741839811205864</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>0.9541666666666666</v>
+      </c>
+      <c r="B107" t="n">
+        <v>0.7412382364273071</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>0.9591666666666666</v>
+      </c>
+      <c r="B108" t="n">
+        <v>0.7663453668355942</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>0.9566666666666667</v>
+      </c>
+      <c r="B109" t="n">
+        <v>0.7454852163791656</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>0.9541666666666666</v>
+      </c>
+      <c r="B110" t="n">
+        <v>0.7454677373170853</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>0.9491666666666666</v>
+      </c>
+      <c r="B111" t="n">
+        <v>0.7513705939054489</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>0.9541666666666666</v>
+      </c>
+      <c r="B112" t="n">
+        <v>0.7511686533689499</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>0.9616666666666666</v>
+      </c>
+      <c r="B113" t="n">
+        <v>0.7387379854917526</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>0.9491666666666666</v>
+      </c>
+      <c r="B114" t="n">
+        <v>0.7344482094049454</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>0.9516666666666665</v>
+      </c>
+      <c r="B115" t="n">
+        <v>0.7521327584981918</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>0.9566666666666667</v>
+      </c>
+      <c r="B116" t="n">
+        <v>0.750554233789444</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>0.9491666666666666</v>
+      </c>
+      <c r="B117" t="n">
+        <v>0.7365353405475616</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>0.9541666666666666</v>
+      </c>
+      <c r="B118" t="n">
+        <v>0.7334634959697723</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>0.964375</v>
+      </c>
+      <c r="B119" t="n">
+        <v>0.7488612979650497</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>0.9491666666666666</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0.7399699538946152</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>0.9466666666666667</v>
+      </c>
+      <c r="B121" t="n">
+        <v>0.7361037582159042</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>0.9541666666666666</v>
+      </c>
+      <c r="B122" t="n">
+        <v>0.7380019426345825</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>0.9516666666666665</v>
+      </c>
+      <c r="B123" t="n">
+        <v>0.7361631095409393</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>0.9566666666666667</v>
+      </c>
+      <c r="B124" t="n">
+        <v>0.7470724880695343</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>0.9541666666666666</v>
+      </c>
+      <c r="B125" t="n">
+        <v>0.7497044801712036</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>0.9491666666666666</v>
+      </c>
+      <c r="B126" t="n">
+        <v>0.7404972612857819</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>0.9491666666666666</v>
+      </c>
+      <c r="B127" t="n">
+        <v>0.7319557219743729</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>0.9491666666666666</v>
+      </c>
+      <c r="B128" t="n">
+        <v>0.7418622672557831</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>0.9541666666666666</v>
+      </c>
+      <c r="B129" t="n">
+        <v>0.7457702159881592</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>0.9541666666666666</v>
+      </c>
+      <c r="B130" t="n">
+        <v>0.7505331784486771</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>0.9491666666666666</v>
+      </c>
+      <c r="B131" t="n">
+        <v>0.7374711036682129</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>0.9491666666666666</v>
+      </c>
+      <c r="B132" t="n">
+        <v>0.7402344197034836</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>0.9541666666666666</v>
+      </c>
+      <c r="B133" t="n">
+        <v>0.7332242578268051</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>0.9591666666666666</v>
+      </c>
+      <c r="B134" t="n">
+        <v>0.7342972755432129</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>0.9466666666666667</v>
+      </c>
+      <c r="B135" t="n">
+        <v>0.7378170639276505</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>0.9566666666666667</v>
+      </c>
+      <c r="B136" t="n">
+        <v>0.7319213449954987</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>0.9541666666666666</v>
+      </c>
+      <c r="B137" t="n">
+        <v>0.7551988810300827</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>0.9566666666666667</v>
+      </c>
+      <c r="B138" t="n">
+        <v>0.7453820705413818</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>0.9491666666666666</v>
+      </c>
+      <c r="B139" t="n">
+        <v>0.730629950761795</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>0.9541666666666666</v>
+      </c>
+      <c r="B140" t="n">
+        <v>0.7400909960269928</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>0.9516666666666665</v>
+      </c>
+      <c r="B141" t="n">
+        <v>0.733338862657547</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>0.9516666666666665</v>
+      </c>
+      <c r="B142" t="n">
+        <v>0.7386268675327301</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>0.9568749999999999</v>
+      </c>
+      <c r="B143" t="n">
+        <v>0.7374373972415924</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>0.9516666666666665</v>
+      </c>
+      <c r="B144" t="n">
+        <v>0.7431497871875763</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>0.9541666666666666</v>
+      </c>
+      <c r="B145" t="n">
+        <v>0.7320070266723633</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>0.9491666666666666</v>
+      </c>
+      <c r="B146" t="n">
+        <v>0.7456778287887573</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>0.9541666666666666</v>
+      </c>
+      <c r="B147" t="n">
+        <v>0.734567865729332</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>0.9566666666666667</v>
+      </c>
+      <c r="B148" t="n">
+        <v>0.7295526713132858</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>0.9541666666666666</v>
+      </c>
+      <c r="B149" t="n">
+        <v>0.7478967010974884</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>0.9439583333333333</v>
+      </c>
+      <c r="B150" t="n">
+        <v>0.7335246056318283</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>0.9566666666666667</v>
+      </c>
+      <c r="B151" t="n">
+        <v>0.7281107902526855</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>0.9541666666666666</v>
+      </c>
+      <c r="B152" t="n">
+        <v>0.733550950884819</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>0.9516666666666665</v>
+      </c>
+      <c r="B153" t="n">
+        <v>0.7545402944087982</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>0.9566666666666667</v>
+      </c>
+      <c r="B154" t="n">
+        <v>0.7258665263652802</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>0.9541666666666666</v>
+      </c>
+      <c r="B155" t="n">
+        <v>0.7331942319869995</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>0.9516666666666665</v>
+      </c>
+      <c r="B156" t="n">
+        <v>0.731574222445488</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>0.9491666666666666</v>
+      </c>
+      <c r="B157" t="n">
+        <v>0.7290493249893188</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>0.9541666666666666</v>
+      </c>
+      <c r="B158" t="n">
+        <v>0.7344769835472107</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>0.9516666666666665</v>
+      </c>
+      <c r="B159" t="n">
+        <v>0.7470413148403168</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>0.9516666666666665</v>
+      </c>
+      <c r="B160" t="n">
+        <v>0.7386623024940491</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>0.9541666666666666</v>
+      </c>
+      <c r="B161" t="n">
+        <v>0.727267324924469</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>0.9541666666666666</v>
+      </c>
+      <c r="B162" t="n">
+        <v>0.7313334792852402</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>0.9541666666666666</v>
+      </c>
+      <c r="B163" t="n">
+        <v>0.7312973886728287</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>0.9541666666666666</v>
+      </c>
+      <c r="B164" t="n">
+        <v>0.7431801408529282</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>0.9541666666666666</v>
+      </c>
+      <c r="B165" t="n">
+        <v>0.7348705232143402</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>0.9566666666666667</v>
+      </c>
+      <c r="B166" t="n">
+        <v>0.7449537813663483</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>0.9466666666666667</v>
+      </c>
+      <c r="B167" t="n">
+        <v>0.7278531342744827</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>0.9491666666666666</v>
+      </c>
+      <c r="B168" t="n">
+        <v>0.7282050997018814</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>0.9491666666666666</v>
+      </c>
+      <c r="B169" t="n">
+        <v>0.7265485823154449</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>0.959375</v>
+      </c>
+      <c r="B170" t="n">
+        <v>0.7420489341020584</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>0.9516666666666665</v>
+      </c>
+      <c r="B171" t="n">
+        <v>0.7285241931676865</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>0.9541666666666666</v>
+      </c>
+      <c r="B172" t="n">
+        <v>0.7253140360116959</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>0.9541666666666666</v>
+      </c>
+      <c r="B173" t="n">
+        <v>0.7286589294672012</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>0.9566666666666667</v>
+      </c>
+      <c r="B174" t="n">
+        <v>0.7272773683071136</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>0.9541666666666666</v>
+      </c>
+      <c r="B175" t="n">
+        <v>0.7290022671222687</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>0.9541666666666666</v>
+      </c>
+      <c r="B176" t="n">
+        <v>0.7252578437328339</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>0.959375</v>
+      </c>
+      <c r="B177" t="n">
+        <v>0.7329147756099701</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>0.9516666666666665</v>
+      </c>
+      <c r="B178" t="n">
+        <v>0.729429230093956</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>0.9541666666666666</v>
+      </c>
+      <c r="B179" t="n">
+        <v>0.7315579205751419</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>0.9566666666666667</v>
+      </c>
+      <c r="B180" t="n">
+        <v>0.7308774441480637</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>0.9566666666666667</v>
+      </c>
+      <c r="B181" t="n">
+        <v>0.739803209900856</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>0.9516666666666665</v>
+      </c>
+      <c r="B182" t="n">
+        <v>0.7236008793115616</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>0.954375</v>
+      </c>
+      <c r="B183" t="n">
+        <v>0.7255324721336365</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>0.9566666666666667</v>
+      </c>
+      <c r="B184" t="n">
+        <v>0.7300299406051636</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>0.9566666666666667</v>
+      </c>
+      <c r="B185" t="n">
+        <v>0.7271575629711151</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>0.959375</v>
+      </c>
+      <c r="B186" t="n">
+        <v>0.7251225411891937</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>0.9516666666666665</v>
+      </c>
+      <c r="B187" t="n">
+        <v>0.7242019772529602</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>0.9541666666666666</v>
+      </c>
+      <c r="B188" t="n">
+        <v>0.7324099242687225</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>0.9591666666666666</v>
+      </c>
+      <c r="B189" t="n">
+        <v>0.7236276865005493</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>0.9591666666666666</v>
+      </c>
+      <c r="B190" t="n">
+        <v>0.730783224105835</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>0.9541666666666666</v>
+      </c>
+      <c r="B191" t="n">
+        <v>0.7182508856058121</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>0.9616666666666666</v>
+      </c>
+      <c r="B192" t="n">
+        <v>0.7199773788452148</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>0.9566666666666667</v>
+      </c>
+      <c r="B193" t="n">
+        <v>0.7216796875</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>0.964375</v>
+      </c>
+      <c r="B194" t="n">
+        <v>0.7311313599348068</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>0.9616666666666666</v>
+      </c>
+      <c r="B195" t="n">
+        <v>0.7274405509233475</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>0.9491666666666666</v>
+      </c>
+      <c r="B196" t="n">
+        <v>0.7231183797121048</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>0.9541666666666666</v>
+      </c>
+      <c r="B197" t="n">
+        <v>0.7233795672655106</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>0.9541666666666666</v>
+      </c>
+      <c r="B198" t="n">
+        <v>0.7331459224224091</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>0.9591666666666666</v>
+      </c>
+      <c r="B199" t="n">
+        <v>0.7258933335542679</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>0.9541666666666666</v>
+      </c>
+      <c r="B200" t="n">
+        <v>0.7187741696834564</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>0.959375</v>
+      </c>
+      <c r="B201" t="n">
+        <v>0.7194137275218964</v>
       </c>
     </row>
   </sheetData>
